--- a/DatosKardex2022/KevinECSDatos_r.xlsx
+++ b/DatosKardex2022/KevinECSDatos_r.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aleja\Documents\EjemploCalificaciones\DatosKardex2022\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{457F244F-FDF0-4D1B-8F88-86BDB6083A6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A668C7D-3276-40C2-89E9-164F13CBD736}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{614BABE4-D94A-4733-ADCA-062236D4E8A2}"/>
   </bookViews>
@@ -583,7 +583,7 @@
   <dimension ref="A1:H28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection activeCell="A2" sqref="A1:H28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -648,7 +648,7 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3">
-        <v>18161098</v>
+        <v>18161097</v>
       </c>
       <c r="B3" t="s">
         <v>63</v>
@@ -674,7 +674,7 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4">
-        <v>18161099</v>
+        <v>18161097</v>
       </c>
       <c r="B4" t="s">
         <v>63</v>
@@ -700,7 +700,7 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5">
-        <v>18161100</v>
+        <v>18161097</v>
       </c>
       <c r="B5" t="s">
         <v>63</v>
@@ -726,7 +726,7 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6">
-        <v>18161101</v>
+        <v>18161097</v>
       </c>
       <c r="B6" t="s">
         <v>63</v>
@@ -752,7 +752,7 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7">
-        <v>18161102</v>
+        <v>18161097</v>
       </c>
       <c r="B7" t="s">
         <v>63</v>
@@ -778,7 +778,7 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8">
-        <v>18161103</v>
+        <v>18161097</v>
       </c>
       <c r="B8" t="s">
         <v>63</v>
@@ -804,7 +804,7 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9">
-        <v>18161104</v>
+        <v>18161097</v>
       </c>
       <c r="B9" t="s">
         <v>63</v>
@@ -830,7 +830,7 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10">
-        <v>18161105</v>
+        <v>18161097</v>
       </c>
       <c r="B10" t="s">
         <v>63</v>
@@ -856,7 +856,7 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11">
-        <v>18161106</v>
+        <v>18161097</v>
       </c>
       <c r="B11" t="s">
         <v>63</v>
@@ -882,7 +882,7 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12">
-        <v>18161107</v>
+        <v>18161097</v>
       </c>
       <c r="B12" t="s">
         <v>63</v>
@@ -908,7 +908,7 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13">
-        <v>18161108</v>
+        <v>18161097</v>
       </c>
       <c r="B13" t="s">
         <v>63</v>
@@ -934,7 +934,7 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14">
-        <v>18161109</v>
+        <v>18161097</v>
       </c>
       <c r="B14" t="s">
         <v>63</v>
@@ -960,7 +960,7 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15">
-        <v>18161110</v>
+        <v>18161097</v>
       </c>
       <c r="B15" t="s">
         <v>63</v>
@@ -986,7 +986,7 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16">
-        <v>18161111</v>
+        <v>18161097</v>
       </c>
       <c r="B16" t="s">
         <v>63</v>
@@ -1012,7 +1012,7 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17">
-        <v>18161112</v>
+        <v>18161097</v>
       </c>
       <c r="B17" t="s">
         <v>63</v>
@@ -1038,7 +1038,7 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18">
-        <v>18161113</v>
+        <v>18161097</v>
       </c>
       <c r="B18" t="s">
         <v>63</v>
@@ -1064,7 +1064,7 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19">
-        <v>18161114</v>
+        <v>18161097</v>
       </c>
       <c r="B19" t="s">
         <v>63</v>
@@ -1090,7 +1090,7 @@
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20">
-        <v>18161115</v>
+        <v>18161097</v>
       </c>
       <c r="B20" t="s">
         <v>63</v>
@@ -1116,7 +1116,7 @@
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21">
-        <v>18161116</v>
+        <v>18161097</v>
       </c>
       <c r="B21" t="s">
         <v>63</v>
@@ -1142,7 +1142,7 @@
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22">
-        <v>18161117</v>
+        <v>18161097</v>
       </c>
       <c r="B22" t="s">
         <v>63</v>
@@ -1168,7 +1168,7 @@
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23">
-        <v>18161118</v>
+        <v>18161097</v>
       </c>
       <c r="B23" t="s">
         <v>63</v>
@@ -1194,7 +1194,7 @@
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24">
-        <v>18161119</v>
+        <v>18161097</v>
       </c>
       <c r="B24" t="s">
         <v>63</v>
@@ -1220,7 +1220,7 @@
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25">
-        <v>18161120</v>
+        <v>18161097</v>
       </c>
       <c r="B25" t="s">
         <v>63</v>
@@ -1246,7 +1246,7 @@
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26">
-        <v>18161121</v>
+        <v>18161097</v>
       </c>
       <c r="B26" t="s">
         <v>63</v>
@@ -1272,7 +1272,7 @@
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27">
-        <v>18161122</v>
+        <v>18161097</v>
       </c>
       <c r="B27" t="s">
         <v>63</v>
@@ -1298,7 +1298,7 @@
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28">
-        <v>18161123</v>
+        <v>18161097</v>
       </c>
       <c r="B28" t="s">
         <v>63</v>
